--- a/DynamicUsgbc.xlsx
+++ b/DynamicUsgbc.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Documents\Dynamic USGBC\DynamicUsgbc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Documents\GitHub\DynamicUsgbc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10905" windowHeight="7275" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10905" windowHeight="7275"/>
   </bookViews>
   <sheets>
     <sheet name="CommunityRegistration" sheetId="1" r:id="rId1"/>
@@ -529,8 +529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -708,8 +708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/DynamicUsgbc.xlsx
+++ b/DynamicUsgbc.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10905" windowHeight="7275"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10905" windowHeight="7275" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="CommunityRegistration" sheetId="1" r:id="rId1"/>
-    <sheet name="SignIn" sheetId="2" r:id="rId2"/>
-    <sheet name="Payment" sheetId="3" r:id="rId3"/>
-    <sheet name="VerifyDetails" sheetId="4" r:id="rId4"/>
+    <sheet name="GitSheet" sheetId="5" r:id="rId2"/>
+    <sheet name="SignIn" sheetId="2" r:id="rId3"/>
+    <sheet name="Payment" sheetId="3" r:id="rId4"/>
+    <sheet name="VerifyDetails" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="46">
   <si>
     <t>CommunityName</t>
   </si>
@@ -159,6 +160,12 @@
   </si>
   <si>
     <t>371449635392376</t>
+  </si>
+  <si>
+    <t>Git</t>
+  </si>
+  <si>
+    <t>pass</t>
   </si>
 </sst>
 </file>
@@ -529,7 +536,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -669,6 +676,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -704,7 +734,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K2"/>
   <sheetViews>
@@ -799,7 +829,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>

--- a/DynamicUsgbc.xlsx
+++ b/DynamicUsgbc.xlsx
@@ -1,23 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Documents\GitHub\DynamicUsgbc\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10905" windowHeight="7275"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14835" windowHeight="6075" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="CommunityRegistration" sheetId="1" r:id="rId1"/>
-    <sheet name="SignIn" sheetId="2" r:id="rId2"/>
-    <sheet name="Payment" sheetId="3" r:id="rId3"/>
-    <sheet name="VerifyDetails" sheetId="4" r:id="rId4"/>
+    <sheet name="Test2" sheetId="5" r:id="rId2"/>
+    <sheet name="SignIn" sheetId="2" r:id="rId3"/>
+    <sheet name="Payment" sheetId="3" r:id="rId4"/>
+    <sheet name="VerifyDetails" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:O18"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="45">
   <si>
     <t>CommunityName</t>
   </si>
@@ -159,12 +156,15 @@
   </si>
   <si>
     <t>371449635392376</t>
+  </si>
+  <si>
+    <t>Test</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
@@ -529,8 +529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -669,6 +669,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -704,12 +724,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -799,7 +819,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>

--- a/DynamicUsgbc.xlsx
+++ b/DynamicUsgbc.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="47">
   <si>
     <t>CommunityName</t>
   </si>
@@ -166,6 +166,9 @@
   </si>
   <si>
     <t>pass</t>
+  </si>
+  <si>
+    <t>Username</t>
   </si>
 </sst>
 </file>
@@ -676,20 +679,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>44</v>
       </c>
       <c r="B1" t="s">
         <v>45</v>
+      </c>
+      <c r="C1" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/DynamicUsgbc.xlsx
+++ b/DynamicUsgbc.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="46">
   <si>
     <t>CommunityName</t>
   </si>
@@ -159,6 +159,9 @@
   </si>
   <si>
     <t>Test</t>
+  </si>
+  <si>
+    <t>dfjf</t>
   </si>
 </sst>
 </file>
@@ -669,17 +672,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>44</v>
+      </c>
+      <c r="B1" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
